--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -27,12 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>URL</t>
   </si>
   <si>
+    <t>UserRoles</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>https://qa-deepam.medyaan.com/</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>HelpDesk</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>LabAssistant</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>PharmacyAdmin</t>
   </si>
 </sst>
 </file>
@@ -45,7 +75,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +90,23 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -521,139 +568,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1188,27 +1244,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="29.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="13.7272727272727" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>8870822001</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://qa-deepam.medyaan.com/"/>
+    <hyperlink ref="D2" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="D3" r:id="rId2" display="Test@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="17500" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>URL</t>
   </si>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1316,7 +1316,12 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="C7">
+        <v>7094755145</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="2"/>
@@ -1336,6 +1341,7 @@
     <hyperlink ref="A2" r:id="rId1" display="https://qa-deepam.medyaan.com/"/>
     <hyperlink ref="D2" r:id="rId2" display="Test@123"/>
     <hyperlink ref="D3" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="D7" r:id="rId2" display="Test@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17500" windowHeight="6420"/>
+    <workbookView windowWidth="19200" windowHeight="6080"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>URL</t>
   </si>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1298,7 +1298,12 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="C4">
+        <v>8056221601</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
@@ -1342,6 +1347,7 @@
     <hyperlink ref="D2" r:id="rId2" display="Test@123"/>
     <hyperlink ref="D3" r:id="rId2" display="Test@123"/>
     <hyperlink ref="D7" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="D4" r:id="rId2" display="Test@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17500" windowHeight="6420"/>
+    <workbookView windowWidth="17500" windowHeight="6420" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="PharmacyAdmin_Supplier" sheetId="2" r:id="rId2"/>
+    <sheet name="PharmacyAdmin_Manufacturer" sheetId="3" r:id="rId3"/>
+    <sheet name="PharmacyAdmin_ProductCategory" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>URL</t>
   </si>
@@ -63,6 +66,90 @@
   </si>
   <si>
     <t>PharmacyAdmin</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Toast</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>arun</t>
+  </si>
+  <si>
+    <t>arun@gmail.com</t>
+  </si>
+  <si>
+    <t>chitlapakkam</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Tambaram</t>
+  </si>
+  <si>
+    <t>Supplier created successfully</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>arungmail.com</t>
+  </si>
+  <si>
+    <t>Supplier details updated successfully</t>
+  </si>
+  <si>
+    <t>arunkumar</t>
+  </si>
+  <si>
+    <t>Supplier details deleted successfully</t>
+  </si>
+  <si>
+    <t>RAKPSD</t>
+  </si>
+  <si>
+    <t>Manufacture created successfully</t>
+  </si>
+  <si>
+    <t>YaanMed</t>
+  </si>
+  <si>
+    <t>Manufacture updated successfully</t>
+  </si>
+  <si>
+    <t>Datayaan</t>
+  </si>
+  <si>
+    <t>Manufacturer deleted successfully</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Homeopathyies</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Homeopathy</t>
   </si>
 </sst>
 </file>
@@ -75,7 +162,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,9 +171,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,14 +210,6 @@
       <sz val="10.5"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -565,150 +660,159 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1246,7 +1350,7 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1271,46 +1375,46 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1319,22 +1423,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="2"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2"/>
+      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1346,4 +1450,334 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="11.7272727272727"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="58" spans="1:8">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>7082767623</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="72.5" spans="1:7">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>3082767623</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="72.5" spans="1:7">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>7094755143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="arun@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="arungmail.com"/>
+    <hyperlink ref="C4" r:id="rId1" display="arun@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="11.7272727272727"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="72.5" spans="1:8">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>7082767623</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="72.5" spans="1:7">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>3082767623</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="72.5" spans="1:8">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>7094755143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="arun@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="arungmail.com"/>
+    <hyperlink ref="C4" r:id="rId1" display="arun@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="11.7272727272727"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" ht="72.5" spans="1:7">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="72.5" spans="1:7">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="72.5" spans="1:7">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17500" windowHeight="6420"/>
+    <workbookView windowWidth="19200" windowHeight="6200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Helpdesk_Patient" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>URL</t>
   </si>
@@ -53,6 +54,9 @@
     <t>HelpDesk</t>
   </si>
   <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
     <t>Pharmacist</t>
   </si>
   <si>
@@ -63,17 +67,78 @@
   </si>
   <si>
     <t>PharmacyAdmin</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Blood Group</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>searchText</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>vickey</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>vikyjoe@gmail.com</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>muthu</t>
+  </si>
+  <si>
+    <t>fsdfds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -695,8 +760,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
@@ -710,6 +778,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1246,8 +1317,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1271,79 +1342,187 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="C3">
+        <v>8754800437</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://qa-deepam.medyaan.com/"/>
     <hyperlink ref="D2" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="D3" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="D3" r:id="rId3" display="Admin@123" tooltip="mailto:Admin@123"/>
     <hyperlink ref="D7" r:id="rId2" display="Test@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="10.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="10.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="14.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="15.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="19.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="13.0909090909091" customWidth="1"/>
+    <col min="9" max="9" width="14.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="13.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>33867</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="10:11">
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="vikyjoe@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080"/>
+    <workbookView windowWidth="19200" windowHeight="6080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Pharmacist" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>URL</t>
   </si>
@@ -63,6 +64,45 @@
   </si>
   <si>
     <t>PharmacyAdmin</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>SearchMed</t>
+  </si>
+  <si>
+    <t>BatchNo</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>PaymentMethod</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Pradeep</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Beta12</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
 </sst>
 </file>
@@ -75,7 +115,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +124,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -95,18 +141,18 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -565,151 +611,157 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1244,78 +1296,76 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="29.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="13.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
         <v>8056221601</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1324,22 +1374,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2"/>
+      <c r="B11" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1352,4 +1402,84 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="11.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="8.54545454545454" customWidth="1"/>
+    <col min="4" max="4" width="8.72727272727273" customWidth="1"/>
+    <col min="5" max="5" width="8.81818181818182" customWidth="1"/>
+    <col min="6" max="6" width="8.27272727272727" customWidth="1"/>
+    <col min="7" max="7" width="9.90909090909091" customWidth="1"/>
+    <col min="8" max="8" width="16.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="8.90909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="PharmacyAdmin_Supplier" sheetId="2" r:id="rId2"/>
     <sheet name="PharmacyAdmin_Manufacturer" sheetId="3" r:id="rId3"/>
     <sheet name="PharmacyAdmin_ProductCategory" sheetId="4" r:id="rId4"/>
+    <sheet name="Doctor-EHR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>URL</t>
   </si>
@@ -150,6 +151,39 @@
   </si>
   <si>
     <t>Homeopathy</t>
+  </si>
+  <si>
+    <t>Systolic</t>
+  </si>
+  <si>
+    <t>Diastolic</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>pulseRate</t>
+  </si>
+  <si>
+    <t>SpO2Level</t>
+  </si>
+  <si>
+    <t>diabeteseDetails</t>
+  </si>
+  <si>
+    <t>Subclinical_Hypothyroidism</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>You have been diagnosed</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1385,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1580,8 +1614,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1707,7 +1741,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1771,4 +1805,84 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.9090909090909" customWidth="1"/>
+    <col min="9" max="9" width="25.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>156.2</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>98</v>
+      </c>
+      <c r="F2">
+        <v>86</v>
+      </c>
+      <c r="G2">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Pharmacist" sheetId="2" r:id="rId2"/>
+    <sheet name="PharmacyAdmin_Supplier" sheetId="3" r:id="rId3"/>
+    <sheet name="PharmacyAdmin_Manufacturer" sheetId="4" r:id="rId4"/>
+    <sheet name="PharmacyAdmin_ProductCategory" sheetId="5" r:id="rId5"/>
+    <sheet name="Doctor-EHR" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
   <si>
     <t>URL</t>
   </si>
@@ -133,6 +137,123 @@
   </si>
   <si>
     <t>para12</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Toast</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>arun</t>
+  </si>
+  <si>
+    <t>arun@gmail.com</t>
+  </si>
+  <si>
+    <t>chitlapakkam</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Tambaram</t>
+  </si>
+  <si>
+    <t>Supplier created successfully</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>arungmail.com</t>
+  </si>
+  <si>
+    <t>Supplier details updated successfully</t>
+  </si>
+  <si>
+    <t>arunkumar</t>
+  </si>
+  <si>
+    <t>Supplier details deleted successfully</t>
+  </si>
+  <si>
+    <t>RAKPSD</t>
+  </si>
+  <si>
+    <t>Manufacture created successfully</t>
+  </si>
+  <si>
+    <t>YaanMed</t>
+  </si>
+  <si>
+    <t>Manufacture updated successfully</t>
+  </si>
+  <si>
+    <t>Datayaan</t>
+  </si>
+  <si>
+    <t>Manufacturer deleted successfully</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Homeopathyies</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Homeopathy</t>
+  </si>
+  <si>
+    <t>Systolic</t>
+  </si>
+  <si>
+    <t>Diastolic</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>pulseRate</t>
+  </si>
+  <si>
+    <t>SpO2Level</t>
+  </si>
+  <si>
+    <t>diabeteseDetails</t>
+  </si>
+  <si>
+    <t>Subclinical_Hypothyroidism</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>You have been diagnosed</t>
   </si>
 </sst>
 </file>
@@ -776,8 +897,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1350,63 +1474,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C4">
         <v>8056221601</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1415,22 +1539,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="6"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1450,7 +1574,7 @@
   <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1465,7 +1589,7 @@
     <col min="7" max="7" width="9.90909090909091" customWidth="1"/>
     <col min="8" max="8" width="16.1818181818182" customWidth="1"/>
     <col min="9" max="9" width="8.90909090909091" customWidth="1"/>
-    <col min="10" max="10" width="1.17272727272727" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.17272727272727" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1530,7 +1654,7 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D3">
@@ -1547,7 +1671,7 @@
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D4">
@@ -1567,7 +1691,384 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="13.2727272727273"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7082767623</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3082767623</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7094755143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="11.7272727272727" style="1"/>
+    <col min="3" max="16384" width="8.72727272727273" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7082767623</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3082767623</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7094755143</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>156.2</v>
+      </c>
+      <c r="D2">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>98</v>
+      </c>
+      <c r="F2">
+        <v>86</v>
+      </c>
+      <c r="G2">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
   <si>
     <t>URL</t>
   </si>
@@ -88,7 +88,10 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Reference</t>
+    <t>Ref_Type</t>
+  </si>
+  <si>
+    <t>RefBy</t>
   </si>
   <si>
     <t>PaymentMode</t>
@@ -124,12 +127,18 @@
     <t>Card</t>
   </si>
   <si>
+    <t>prakash</t>
+  </si>
+  <si>
     <t>DOLO</t>
   </si>
   <si>
     <t>dolo12</t>
   </si>
   <si>
+    <t>Employee</t>
+  </si>
+  <si>
     <t>UPI</t>
   </si>
   <si>
@@ -137,6 +146,9 @@
   </si>
   <si>
     <t>para12</t>
+  </si>
+  <si>
+    <t>Coupon</t>
   </si>
   <si>
     <t>Name</t>
@@ -897,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,9 +920,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1474,63 +1483,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4">
         <v>8056221601</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1539,22 +1548,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="7"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1572,13 +1581,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
@@ -1587,12 +1596,13 @@
     <col min="5" max="5" width="8.81818181818182" customWidth="1"/>
     <col min="6" max="6" width="8.27272727272727" customWidth="1"/>
     <col min="7" max="7" width="9.90909090909091" customWidth="1"/>
-    <col min="8" max="8" width="16.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="8.90909090909091" customWidth="1"/>
-    <col min="10" max="10" width="1.17272727272727" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="16.1818181818182" customWidth="1"/>
+    <col min="10" max="10" width="8.90909090909091" customWidth="1"/>
+    <col min="11" max="11" width="1.17272727272727" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1620,78 +1630,158 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2"/>
+      <c r="L2">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>3354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3">
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="L3">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>32</v>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1715,100 +1805,100 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>7082767623</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>3082767623</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1">
         <v>7094755143</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1835,103 +1925,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>7082767623</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1">
         <v>3082767623</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1">
         <v>7094755143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1953,46 +2043,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2006,39 +2096,39 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2064,10 +2154,10 @@
         <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>URL</t>
   </si>
@@ -180,10 +180,37 @@
     <t>Subclinical_Hypothyroidism</t>
   </si>
   <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Cheif_Complaint</t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>Diagnosis_data</t>
+  </si>
+  <si>
+    <t>treatment_plan</t>
+  </si>
+  <si>
     <t>Type 1</t>
   </si>
   <si>
     <t>You have been diagnosed</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Taking tablets</t>
   </si>
 </sst>
 </file>
@@ -205,6 +232,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,11 +271,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -694,12 +721,12 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,29 +851,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1415,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1409,46 +1439,46 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1457,22 +1487,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1501,28 +1531,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1533,7 +1563,7 @@
       <c r="B2">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
@@ -1545,7 +1575,7 @@
       <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
@@ -1559,7 +1589,7 @@
       <c r="B3">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -1571,7 +1601,7 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1582,7 +1612,7 @@
       <c r="B4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1594,7 +1624,7 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1624,28 +1654,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1656,7 +1686,7 @@
       <c r="B2">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
@@ -1668,7 +1698,7 @@
       <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H2" t="s">
@@ -1682,7 +1712,7 @@
       <c r="B3">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -1694,7 +1724,7 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1705,7 +1735,7 @@
       <c r="B4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1717,7 +1747,7 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
@@ -1750,20 +1780,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" ht="72.5" spans="1:7">
       <c r="A2" t="s">
@@ -1772,10 +1802,10 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" ht="72.5" spans="1:7">
       <c r="A3" t="s">
@@ -1784,10 +1814,10 @@
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" ht="72.5" spans="1:7">
       <c r="A4" t="s">
@@ -1796,10 +1826,10 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1810,10 +1840,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1821,9 +1851,13 @@
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="14.9090909090909" customWidth="1"/>
     <col min="9" max="9" width="25.2727272727273" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="12.2727272727273" customWidth="1"/>
+    <col min="13" max="13" width="14.4545454545455" customWidth="1"/>
+    <col min="14" max="14" width="13.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1851,8 +1885,23 @@
       <c r="I1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>110</v>
       </c>
@@ -1875,10 +1924,25 @@
         <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="PharmacyAdmin_Supplier" sheetId="2" r:id="rId2"/>
     <sheet name="PharmacyAdmin_Manufacturer" sheetId="3" r:id="rId3"/>
     <sheet name="PharmacyAdmin_ProductCategory" sheetId="4" r:id="rId4"/>
+    <sheet name="PharmacyAdmin_Product" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>URL</t>
   </si>
@@ -149,7 +150,106 @@
     <t>Test</t>
   </si>
   <si>
+    <t>Product category created successfully</t>
+  </si>
+  <si>
     <t>Homeopathy</t>
+  </si>
+  <si>
+    <t>Product category updated successfully</t>
+  </si>
+  <si>
+    <t>Product category deleted successfully</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>BestPrice</t>
+  </si>
+  <si>
+    <t>ProductCategory</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>UOMPurchase</t>
+  </si>
+  <si>
+    <t>HSNCode</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>SGST</t>
+  </si>
+  <si>
+    <t>GenericName</t>
+  </si>
+  <si>
+    <t>PrescriptionRequired</t>
+  </si>
+  <si>
+    <t>Aceclofenac</t>
+  </si>
+  <si>
+    <t>Medyaan</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Sidha</t>
+  </si>
+  <si>
+    <t>DS TAB</t>
+  </si>
+  <si>
+    <t>package of 5</t>
+  </si>
+  <si>
+    <t>aceclo</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Product created successfully</t>
+  </si>
+  <si>
+    <t>Aceclof</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>acegen</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Product details updated successfully</t>
+  </si>
+  <si>
+    <t>Fluticasone</t>
+  </si>
+  <si>
+    <t>Allopathy</t>
+  </si>
+  <si>
+    <t>package of 1</t>
+  </si>
+  <si>
+    <t>fluti</t>
+  </si>
+  <si>
+    <t>Product deleted successfully</t>
   </si>
 </sst>
 </file>
@@ -162,7 +262,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +274,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -660,160 +768,169 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1375,46 +1492,46 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1423,22 +1540,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="5"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="5"/>
+      <c r="B11" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1467,28 +1584,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1499,7 +1616,7 @@
       <c r="B2">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
@@ -1511,7 +1628,7 @@
       <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
@@ -1525,7 +1642,7 @@
       <c r="B3">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -1537,7 +1654,7 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1548,7 +1665,7 @@
       <c r="B4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1560,7 +1677,7 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1580,8 +1697,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1590,28 +1707,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1622,7 +1739,7 @@
       <c r="B2">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
@@ -1634,7 +1751,7 @@
       <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H2" t="s">
@@ -1648,7 +1765,7 @@
       <c r="B3">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -1660,7 +1777,7 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1671,7 +1788,7 @@
       <c r="B4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1683,7 +1800,7 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
@@ -1707,7 +1824,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1716,59 +1833,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" ht="72.5" spans="1:7">
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="72.5" spans="1:4">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" ht="72.5" spans="1:7">
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="72.5" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" ht="72.5" spans="1:7">
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="72.5" spans="1:4">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="15.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="12.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="13.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="17.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="13.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="14.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="11.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="11.2727272727273" customWidth="1"/>
+    <col min="10" max="10" width="11.0909090909091" customWidth="1"/>
+    <col min="11" max="11" width="16.9090909090909" customWidth="1"/>
+    <col min="12" max="12" width="19.9090909090909" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="12.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2">
+        <v>90919293</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3">
+        <v>123</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>22242628</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="D2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>URL</t>
   </si>
@@ -73,6 +73,9 @@
     <t>CustomerName</t>
   </si>
   <si>
+    <t>CusNumber</t>
+  </si>
+  <si>
     <t>SearchMed</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>Pradeep</t>
   </si>
   <si>
+    <t>Muthu</t>
+  </si>
+  <si>
     <t>Ascoril</t>
   </si>
   <si>
@@ -115,7 +121,7 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>Muthu</t>
+    <t>prakash</t>
   </si>
   <si>
     <t>Citrazine</t>
@@ -124,19 +130,19 @@
     <t>cit123</t>
   </si>
   <si>
+    <t>Employee</t>
+  </si>
+  <si>
     <t>Card</t>
   </si>
   <si>
-    <t>prakash</t>
-  </si>
-  <si>
     <t>DOLO</t>
   </si>
   <si>
     <t>dolo12</t>
   </si>
   <si>
-    <t>Employee</t>
+    <t>Coupon</t>
   </si>
   <si>
     <t>UPI</t>
@@ -146,9 +152,6 @@
   </si>
   <si>
     <t>para12</t>
-  </si>
-  <si>
-    <t>Coupon</t>
   </si>
   <si>
     <t>Name</t>
@@ -278,8 +281,16 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -779,143 +790,146 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -925,16 +939,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1483,63 +1503,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C4">
         <v>8056221601</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1548,22 +1568,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="6"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="6"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1581,205 +1601,211 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="11.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="8.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="8.72727272727273" customWidth="1"/>
-    <col min="5" max="5" width="8.81818181818182" customWidth="1"/>
-    <col min="6" max="6" width="8.27272727272727" customWidth="1"/>
-    <col min="7" max="7" width="9.90909090909091" customWidth="1"/>
-    <col min="8" max="8" width="22.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="16.1818181818182" customWidth="1"/>
-    <col min="10" max="10" width="8.90909090909091" customWidth="1"/>
-    <col min="11" max="11" width="1.17272727272727" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="8.54545454545454" customWidth="1"/>
+    <col min="5" max="5" width="8.72727272727273" customWidth="1"/>
+    <col min="6" max="6" width="8.81818181818182" customWidth="1"/>
+    <col min="7" max="7" width="8.27272727272727" customWidth="1"/>
+    <col min="8" max="8" width="9.90909090909091" customWidth="1"/>
+    <col min="9" max="9" width="22.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="16.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="8.90909090909091" customWidth="1"/>
+    <col min="12" max="12" width="1.17272727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="L1" s="6"/>
+      <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="B3">
+        <v>7339300832</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2"/>
-      <c r="L2">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3">
         <v>3354</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="D3">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4"/>
+      <c r="M4">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5">
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5">
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
+      <c r="F8">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
-      <c r="D8">
+    <row r="9" spans="5:6">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
-      <c r="D9">
+    <row r="10" spans="5:6">
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
-      <c r="D10">
+    <row r="11" spans="5:6">
+      <c r="E11">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="4:5">
-      <c r="D11">
+    <row r="12" spans="5:6">
+      <c r="E12">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
-      <c r="D12">
+    <row r="13" spans="5:5">
+      <c r="E13">
         <v>10</v>
       </c>
     </row>
@@ -1805,100 +1831,100 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1">
         <v>7082767623</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1">
         <v>3082767623</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1">
         <v>7094755143</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1925,103 +1951,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>7082767623</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1">
         <v>3082767623</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1">
         <v>7094755143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2043,46 +2069,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2104,31 +2130,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2154,10 +2180,10 @@
         <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>URL</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Product deleted successfully</t>
+  </si>
+  <si>
+    <t>Product already mapped with appointments</t>
+  </si>
+  <si>
+    <t>Product already purchased so can not deleted</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,6 +913,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1492,46 +1504,46 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1540,22 +1552,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="7"/>
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1584,28 +1596,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1616,7 +1628,7 @@
       <c r="B2">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
@@ -1642,7 +1654,7 @@
       <c r="B3">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -1665,7 +1677,7 @@
       <c r="B4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1707,28 +1719,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1739,7 +1751,7 @@
       <c r="B2">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
@@ -1765,7 +1777,7 @@
       <c r="B3">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -1788,7 +1800,7 @@
       <c r="B4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1833,22 +1845,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" ht="72.5" spans="1:4">
       <c r="A2" t="s">
@@ -1898,13 +1910,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="15.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
@@ -1976,7 +1988,7 @@
       <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E2" t="s">
@@ -2090,6 +2102,16 @@
       </c>
       <c r="M4" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="5" ht="43.5" spans="13:13">
+      <c r="M5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" ht="43.5" spans="13:13">
+      <c r="M6" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -2052,7 +2052,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="21000" windowHeight="9587" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="PharmacyAdmin_Supplier" sheetId="2" r:id="rId2"/>
-    <sheet name="PharmacyAdmin_Manufacturer" sheetId="3" r:id="rId3"/>
-    <sheet name="PharmacyAdmin_ProductCategory" sheetId="4" r:id="rId4"/>
-    <sheet name="PharmacyAdmin_Product" sheetId="5" r:id="rId5"/>
+    <sheet name="Doctor-EHR" sheetId="6" r:id="rId2"/>
+    <sheet name="PharmacyAdmin_Supplier" sheetId="2" r:id="rId3"/>
+    <sheet name="PharmacyAdmin_Manufacturer" sheetId="3" r:id="rId4"/>
+    <sheet name="PharmacyAdmin_ProductCategory" sheetId="4" r:id="rId5"/>
+    <sheet name="PharmacyAdmin_Product" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
   <si>
     <t>URL</t>
   </si>
@@ -69,6 +70,84 @@
     <t>PharmacyAdmin</t>
   </si>
   <si>
+    <t>Systolic</t>
+  </si>
+  <si>
+    <t>Diastolic</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>pulseRate</t>
+  </si>
+  <si>
+    <t>SpO2Level</t>
+  </si>
+  <si>
+    <t>diabeteseDetails</t>
+  </si>
+  <si>
+    <t>Subclinical_Hypothyroidism</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Cheif_Complaint</t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>Diagnosis_data</t>
+  </si>
+  <si>
+    <t>treatment_plan</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>Dosage</t>
+  </si>
+  <si>
+    <t>M_Count</t>
+  </si>
+  <si>
+    <t>Type 1</t>
+  </si>
+  <si>
+    <t>You have been diagnosed</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Vomiting</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Taking Tablets</t>
+  </si>
+  <si>
+    <t>Dolo</t>
+  </si>
+  <si>
+    <t>2600mg</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -229,9 +308,6 @@
   </si>
   <si>
     <t>acegen</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Product details updated successfully</t>
@@ -268,7 +344,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +383,18 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -783,128 +871,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,9 +1008,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -932,13 +1017,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1483,10 +1581,10 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="29.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="13.7272727272727" customWidth="1"/>
+    <col min="1" max="2" width="29.9074074074074" customWidth="1"/>
+    <col min="3" max="3" width="13.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1504,46 +1602,46 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1552,22 +1650,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="9"/>
+      <c r="B9" s="13"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1584,121 +1682,130 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="11.7272727272727"/>
+    <col min="7" max="7" width="11.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="23.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="10.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="13.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" ht="58" spans="1:8">
-      <c r="A2" t="s">
+      <c r="H1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
-        <v>7082767623</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="M1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" ht="72.5" spans="1:7">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>3082767623</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="O1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="P1" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" ht="72.5" spans="1:7">
-      <c r="A4" t="s">
+      <c r="Q1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
-        <v>7094755143</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="8">
+        <v>110</v>
+      </c>
+      <c r="B2" s="8">
+        <v>70</v>
+      </c>
+      <c r="C2" s="9">
+        <v>156.2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>48</v>
+      </c>
+      <c r="E2" s="8">
+        <v>98</v>
+      </c>
+      <c r="F2" s="8">
+        <v>86</v>
+      </c>
+      <c r="G2" s="8">
+        <v>91</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="I2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="arun@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId1" display="arungmail.com"/>
-    <hyperlink ref="C4" r:id="rId1" display="arun@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1710,113 +1817,110 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="11.7272727272727"/>
+    <col min="2" max="2" width="11.7314814814815"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" ht="72.5" spans="1:8">
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="57.6" spans="1:8">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" ht="72.5" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
+      <c r="C3" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" ht="72.5" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:7">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1836,72 +1940,121 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="11.7272727272727"/>
+    <col min="2" max="2" width="11.7314814814815"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" ht="72.5" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:8">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>7082767623</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="72.5" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="1:7">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" ht="72.5" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>3082767623</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:8">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>7094755143</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="arun@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="arungmail.com"/>
+    <hyperlink ref="C4" r:id="rId1" display="arun@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1910,95 +2063,172 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="11.7314814814815"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" ht="72" spans="1:4">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="1:3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:4">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="15.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="12.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="13.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="17.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="13.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="14.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="11.7272727272727" customWidth="1"/>
-    <col min="9" max="9" width="11.2727272727273" customWidth="1"/>
-    <col min="10" max="10" width="11.0909090909091" customWidth="1"/>
-    <col min="11" max="11" width="16.9090909090909" customWidth="1"/>
-    <col min="12" max="12" width="19.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="15.2685185185185" customWidth="1"/>
+    <col min="2" max="2" width="12.6388888888889" customWidth="1"/>
+    <col min="3" max="3" width="12.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="13.3611111111111" customWidth="1"/>
+    <col min="5" max="5" width="17.5462962962963" customWidth="1"/>
+    <col min="6" max="6" width="13.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="14.6388888888889" customWidth="1"/>
+    <col min="8" max="8" width="11.7314814814815" customWidth="1"/>
+    <col min="9" max="9" width="11.2685185185185" customWidth="1"/>
+    <col min="10" max="10" width="11.0925925925926" customWidth="1"/>
+    <col min="11" max="11" width="16.9074074074074" customWidth="1"/>
+    <col min="12" max="12" width="19.9074074074074" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="12.1818181818182" customWidth="1"/>
+    <col min="14" max="14" width="12.1851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>56</v>
+      <c r="D2" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>90919293</v>
@@ -2010,24 +2240,24 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3">
         <v>10</v>
@@ -2036,13 +2266,13 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H3">
         <v>123</v>
@@ -2054,21 +2284,21 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3">
         <v>30</v>
@@ -2077,13 +2307,13 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H4">
         <v>22242628</v>
@@ -2095,23 +2325,23 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" ht="43.5" spans="13:13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="13:13">
       <c r="M5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" ht="43.5" spans="13:13">
-      <c r="M6" s="5" t="s">
-        <v>74</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="13:13">
+      <c r="M6" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -904,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,9 +919,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1504,46 +1501,46 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1552,22 +1549,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1596,28 +1593,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1628,7 +1625,7 @@
       <c r="B2">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
@@ -1654,7 +1651,7 @@
       <c r="B3">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -1677,7 +1674,7 @@
       <c r="B4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1719,28 +1716,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1751,7 +1748,7 @@
       <c r="B2">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
@@ -1777,7 +1774,7 @@
       <c r="B3">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -1800,7 +1797,7 @@
       <c r="B4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
@@ -1845,22 +1842,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" ht="72.5" spans="1:4">
       <c r="A2" t="s">
@@ -1988,7 +1985,7 @@
       <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E2" t="s">
@@ -2110,7 +2107,7 @@
       </c>
     </row>
     <row r="6" ht="43.5" spans="13:13">
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="3" t="s">
         <v>74</v>
       </c>
     </row>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
   <si>
     <t>URL</t>
   </si>
@@ -266,10 +266,55 @@
     <t>Subclinical_Hypothyroidism</t>
   </si>
   <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Cheif_Complaint</t>
+  </si>
+  <si>
+    <t>Symptoms</t>
+  </si>
+  <si>
+    <t>Diagnosis_data</t>
+  </si>
+  <si>
+    <t>treatment_plan</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>Dosage</t>
+  </si>
+  <si>
+    <t>M_Count</t>
+  </si>
+  <si>
     <t>Type 1</t>
   </si>
   <si>
     <t>You have been diagnosed</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Vomiting</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Taking Tablets</t>
+  </si>
+  <si>
+    <t>Dolo</t>
+  </si>
+  <si>
+    <t>2600mg</t>
   </si>
   <si>
     <t>Firstname</t>
@@ -330,7 +375,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +390,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -842,165 +893,169 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1549,16 +1604,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1566,46 +1621,46 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C4">
         <v>8056221601</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1614,22 +1669,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="8"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="8"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="8"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="8"/>
+      <c r="B11" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1665,45 +1720,45 @@
     <col min="9" max="9" width="22.8181818181818" customWidth="1"/>
     <col min="10" max="10" width="16.1818181818182" customWidth="1"/>
     <col min="11" max="11" width="8.90909090909091" customWidth="1"/>
-    <col min="12" max="12" width="1.17272727272727" style="4" customWidth="1"/>
+    <col min="12" max="12" width="1.17272727272727" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:13">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1748,7 +1803,7 @@
       <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E4">
@@ -1771,7 +1826,7 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E5">
@@ -1907,7 +1962,7 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>7082767623</v>
       </c>
       <c r="C2" t="s">
@@ -1933,7 +1988,7 @@
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>3082767623</v>
       </c>
       <c r="C3" t="s">
@@ -1956,7 +2011,7 @@
       <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>7094755143</v>
       </c>
       <c r="C4" t="s">
@@ -1992,109 +2047,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="2"/>
-    <col min="2" max="2" width="11.7272727272727" style="2"/>
-    <col min="3" max="16384" width="8.72727272727273" style="2"/>
+    <col min="1" max="1" width="8.72727272727273" style="4"/>
+    <col min="2" max="2" width="11.7272727272727" style="4"/>
+    <col min="3" max="16384" width="8.72727272727273" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2168,15 +2223,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="9" max="9" width="24.3636363636364" customWidth="1"/>
+    <col min="10" max="10" width="13.8181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -2204,8 +2263,32 @@
       <c r="I1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>110</v>
       </c>
@@ -2228,10 +2311,34 @@
         <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2352,7 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2257,51 +2364,51 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="L1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <v>8056221601</v>
@@ -2310,10 +2417,10 @@
         <v>123456789</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="6080"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Pharmacist" sheetId="2" r:id="rId2"/>
-    <sheet name="PharmacyAdmin_Supplier" sheetId="3" r:id="rId3"/>
-    <sheet name="PharmacyAdmin_Manufacturer" sheetId="4" r:id="rId4"/>
-    <sheet name="PharmacyAdmin_ProductCategory" sheetId="5" r:id="rId5"/>
-    <sheet name="Doctor-EHR" sheetId="6" r:id="rId6"/>
-    <sheet name="Profile" sheetId="7" r:id="rId7"/>
+    <sheet name="Profile" sheetId="7" r:id="rId2"/>
+    <sheet name="ChangePassword" sheetId="8" r:id="rId3"/>
+    <sheet name="Pharmacist" sheetId="2" r:id="rId4"/>
+    <sheet name="PharmacyAdmin_Supplier" sheetId="3" r:id="rId5"/>
+    <sheet name="PharmacyAdmin_Manufacturer" sheetId="4" r:id="rId6"/>
+    <sheet name="PharmacyAdmin_ProductCategory" sheetId="5" r:id="rId7"/>
+    <sheet name="Doctor-EHR" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
   <si>
     <t>URL</t>
   </si>
@@ -62,6 +63,9 @@
     <t>Pharmacist</t>
   </si>
   <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
     <t>LabAssistant</t>
   </si>
   <si>
@@ -71,6 +75,99 @@
     <t>PharmacyAdmin</t>
   </si>
   <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>EmergencyCon</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Marital</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>BloopGroup</t>
+  </si>
+  <si>
+    <t>UploadProfile</t>
+  </si>
+  <si>
+    <t>Priyadharshan</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>priyadharshan.g@medyaan.com</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>C:/Users/PradeepElumalai/OneDrive - Medyaan Healthcare Private Limited/Pictures/th.jpg</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>priya.g@medyaan.com</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>C:/Users/PradeepElumalai/OneDrive - Medyaan Healthcare Private Limited/Pictures/soon.png.avif</t>
+  </si>
+  <si>
+    <t>C:/Users/PradeepElumalai/OneDrive - Medyaan Healthcare Private Limited/Pictures/SampleJPGImage_15mbmb.jpg</t>
+  </si>
+  <si>
+    <t>CurrentPassword</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
     <t>CustomerName</t>
   </si>
   <si>
@@ -270,78 +367,6 @@
   </si>
   <si>
     <t>You have been diagnosed</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>EmergencyCon</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Marital</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>BloopGroup</t>
-  </si>
-  <si>
-    <t>Priyadharshan</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>priyadharshan.g@medyaan.com</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>A+</t>
-  </si>
-  <si>
-    <t>Priya</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>priya.g@medyaan.com</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>AB+</t>
   </si>
 </sst>
 </file>
@@ -371,22 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -396,6 +407,20 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -863,10 +888,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -997,31 +1022,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
@@ -1568,8 +1593,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -1579,21 +1604,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1622,24 +1647,24 @@
         <v>8056221601</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>7094755145</v>
@@ -1667,7 +1692,7 @@
     <hyperlink ref="D2" r:id="rId2" display="Test@123"/>
     <hyperlink ref="D3" r:id="rId2" display="Test@123"/>
     <hyperlink ref="D7" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="D4" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="D4" r:id="rId3" display="Test@1234" tooltip="mailto:Test@1234"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1675,6 +1700,224 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9.63636363636364" customWidth="1"/>
+    <col min="3" max="3" width="5.54545454545455" customWidth="1"/>
+    <col min="4" max="4" width="7.27272727272727" customWidth="1"/>
+    <col min="5" max="5" width="5.54545454545455" customWidth="1"/>
+    <col min="6" max="6" width="7.72727272727273" customWidth="1"/>
+    <col min="7" max="7" width="11.7272727272727" customWidth="1"/>
+    <col min="8" max="8" width="14.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="31.0909090909091" customWidth="1"/>
+    <col min="10" max="10" width="8.27272727272727" customWidth="1"/>
+    <col min="11" max="11" width="9.36363636363636" customWidth="1"/>
+    <col min="12" max="12" width="11.9090909090909" customWidth="1"/>
+    <col min="13" max="13" width="96.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>8056221601</v>
+      </c>
+      <c r="H2">
+        <v>8056221601</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>7339300833</v>
+      </c>
+      <c r="H3">
+        <v>7733672847</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="13:13">
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" display="priya.g@medyaan.com" tooltip="mailto:priya.g@medyaan.com"/>
+    <hyperlink ref="I2" r:id="rId2" display="priyadharshan.g@medyaan.com" tooltip="mailto:priyadharshan.g@medyaan.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="13.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="17.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="Test@1234" tooltip="mailto:Test@1234"/>
+    <hyperlink ref="B3" r:id="rId1" display="Test@1234" tooltip="mailto:Test@1234"/>
+    <hyperlink ref="C3" r:id="rId1" display="Test@1234" tooltip="mailto:Test@1234"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123" tooltip="mailto:Test@123"/>
+    <hyperlink ref="C2" r:id="rId2" display="Test@123" tooltip="mailto:Test@123"/>
+    <hyperlink ref="A3" r:id="rId1" display="Test@1234" tooltip="mailto:Test@1234"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M13"/>
@@ -1695,65 +1938,65 @@
     <col min="9" max="9" width="22.8181818181818" customWidth="1"/>
     <col min="10" max="10" width="16.1818181818182" customWidth="1"/>
     <col min="11" max="11" width="8.90909090909091" customWidth="1"/>
-    <col min="12" max="12" width="1.17272727272727" style="5" customWidth="1"/>
+    <col min="12" max="12" width="1.17272727272727" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="L1" s="5"/>
       <c r="M1" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>7339300832</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1765,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M3">
         <v>3354</v>
@@ -1773,13 +2016,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1788,10 +2031,10 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M4">
         <v>3357</v>
@@ -1799,10 +2042,10 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1811,10 +2054,10 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="M5">
         <v>73006</v>
@@ -1822,10 +2065,10 @@
     </row>
     <row r="6" spans="3:6">
       <c r="C6" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1893,7 +2136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H4"/>
@@ -1909,100 +2152,100 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1">
         <v>7082767623</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="4">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1">
         <v>3082767623</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="4">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1">
         <v>7094755143</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H4"/>
@@ -2022,110 +2265,110 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="4"/>
-    <col min="2" max="2" width="11.7272727272727" style="4"/>
-    <col min="3" max="16384" width="8.72727272727273" style="4"/>
+    <col min="1" max="1" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="11.7272727272727" style="1"/>
+    <col min="3" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>58</v>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>61</v>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>62</v>
+      <c r="C4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C4"/>
@@ -2147,46 +2390,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2208,31 +2451,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2258,144 +2501,14 @@
         <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="11.5454545454545" customWidth="1"/>
-    <col min="7" max="8" width="11.7272727272727"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2">
-        <v>2000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2">
-        <v>8056221601</v>
-      </c>
-      <c r="H2">
-        <v>8056221601</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3">
-        <v>7339300833</v>
-      </c>
-      <c r="H3">
-        <v>7733672847</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="priya.g@medyaan.com" tooltip="mailto:priya.g@medyaan.com"/>
-    <hyperlink ref="I2" r:id="rId2" display="priyadharshan.g@medyaan.com" tooltip="mailto:priyadharshan.g@medyaan.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="21216" windowHeight="10152"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>https://qa-deepam.medyaan.com/</t>
+    <t>https://uat-deepam.medyaan.com/</t>
   </si>
   <si>
     <t>Doctor</t>
@@ -1593,14 +1593,14 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="29.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="13.7272727272727" customWidth="1"/>
+    <col min="1" max="2" width="29.9074074074074" customWidth="1"/>
+    <col min="3" max="3" width="13.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1688,11 +1688,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://qa-deepam.medyaan.com/"/>
-    <hyperlink ref="D2" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="D3" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="D7" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="D4" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="D2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="D3" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="D7" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="D4" r:id="rId1" display="Test@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1708,19 +1707,19 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
-    <col min="2" max="3" width="11.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="8.54545454545454" customWidth="1"/>
-    <col min="5" max="5" width="8.72727272727273" customWidth="1"/>
-    <col min="6" max="6" width="8.81818181818182" customWidth="1"/>
-    <col min="7" max="7" width="8.27272727272727" customWidth="1"/>
-    <col min="8" max="8" width="9.90909090909091" customWidth="1"/>
-    <col min="9" max="9" width="22.8181818181818" customWidth="1"/>
-    <col min="10" max="10" width="16.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="8.90909090909091" customWidth="1"/>
-    <col min="12" max="12" width="1.17272727272727" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.1851851851852" customWidth="1"/>
+    <col min="2" max="3" width="11.9074074074074" customWidth="1"/>
+    <col min="4" max="4" width="8.5462962962963" customWidth="1"/>
+    <col min="5" max="5" width="8.73148148148148" customWidth="1"/>
+    <col min="6" max="6" width="8.81481481481481" customWidth="1"/>
+    <col min="7" max="7" width="8.26851851851852" customWidth="1"/>
+    <col min="8" max="8" width="9.90740740740741" customWidth="1"/>
+    <col min="9" max="9" width="22.8148148148148" customWidth="1"/>
+    <col min="10" max="10" width="16.1851851851852" customWidth="1"/>
+    <col min="11" max="11" width="8.90740740740741" customWidth="1"/>
+    <col min="12" max="12" width="1.17592592592593" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:13">
@@ -1927,9 +1926,9 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="13.2727272727273"/>
+    <col min="2" max="2" width="13.2685185185185"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2045,11 +2044,11 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="4"/>
-    <col min="2" max="2" width="11.7272727272727" style="4"/>
-    <col min="3" max="16384" width="8.72727272727273" style="4"/>
+    <col min="1" max="1" width="8.73148148148148" style="4"/>
+    <col min="2" max="2" width="11.7314814814815" style="4"/>
+    <col min="3" max="16384" width="8.73148148148148" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2168,7 +2167,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2225,14 +2224,14 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="9" max="9" width="24.3636363636364" customWidth="1"/>
-    <col min="10" max="10" width="13.8181818181818" customWidth="1"/>
+    <col min="9" max="9" width="24.3611111111111" customWidth="1"/>
+    <col min="10" max="10" width="13.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2356,10 +2355,10 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="7" max="7" width="11.7272727272727"/>
-    <col min="8" max="8" width="10.5454545454545"/>
+    <col min="7" max="7" width="11.7314814814815"/>
+    <col min="8" max="8" width="10.5462962962963"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6080"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="PharmacyAdmin_Manufacturer" sheetId="4" r:id="rId6"/>
     <sheet name="PharmacyAdmin_ProductCategory" sheetId="5" r:id="rId7"/>
     <sheet name="Doctor-EHR" sheetId="6" r:id="rId8"/>
+    <sheet name="PharmacyAdmin_Report" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
   <si>
     <t>URL</t>
   </si>
@@ -367,6 +368,18 @@
   </si>
   <si>
     <t>You have been diagnosed</t>
+  </si>
+  <si>
+    <t>ReportType</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>saleorder</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1031,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1041,9 +1060,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1593,7 +1609,7 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1604,63 +1620,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C4">
         <v>8056221601</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1669,22 +1685,22 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="10"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1725,44 +1741,44 @@
     <col min="13" max="13" width="96.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1791,7 +1807,7 @@
       <c r="H2">
         <v>8056221601</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J2" t="s">
@@ -1823,7 +1839,7 @@
       <c r="H3">
         <v>7733672847</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J3" t="s">
@@ -1882,24 +1898,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1938,45 +1954,45 @@
     <col min="9" max="9" width="22.8181818181818" customWidth="1"/>
     <col min="10" max="10" width="16.1818181818182" customWidth="1"/>
     <col min="11" max="11" width="8.90909090909091" customWidth="1"/>
-    <col min="12" max="12" width="1.17272727272727" style="3" customWidth="1"/>
+    <col min="12" max="12" width="1.17272727272727" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2021,7 +2037,7 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E4">
@@ -2044,7 +2060,7 @@
       <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E5">
@@ -2180,7 +2196,7 @@
       <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>7082767623</v>
       </c>
       <c r="C2" t="s">
@@ -2206,7 +2222,7 @@
       <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>3082767623</v>
       </c>
       <c r="C3" t="s">
@@ -2229,7 +2245,7 @@
       <c r="A4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>7094755143</v>
       </c>
       <c r="C4" t="s">
@@ -2265,109 +2281,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="1"/>
-    <col min="2" max="2" width="11.7272727272727" style="1"/>
-    <col min="3" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="1" width="8.72727272727273" style="3"/>
+    <col min="2" max="2" width="11.7272727272727" style="3"/>
+    <col min="3" max="16384" width="8.72727272727273" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2511,4 +2527,61 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6200" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Helpdesk_Patient" sheetId="2" r:id="rId2"/>
+    <sheet name="Helpdesk_Dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>URL</t>
   </si>
@@ -127,18 +128,43 @@
   </si>
   <si>
     <t>fsdfds</t>
+  </si>
+  <si>
+    <t>Specialty</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>ENT</t>
+  </si>
+  <si>
+    <t>General Physician</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="h:mm"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -760,11 +786,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
@@ -1318,7 +1347,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1342,49 +1371,49 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>8870822001</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3">
         <v>8754800437</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
@@ -1393,26 +1422,26 @@
       <c r="C7">
         <v>7094755145</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="3"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="3"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://qa-deepam.medyaan.com/"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://qa-deepam.medyaan.com/" tooltip="https://qa-deepam.medyaan.com/"/>
     <hyperlink ref="D2" r:id="rId2" display="Test@123"/>
     <hyperlink ref="D3" r:id="rId3" display="Admin@123" tooltip="mailto:Admin@123"/>
     <hyperlink ref="D7" r:id="rId2" display="Test@123"/>
@@ -1427,7 +1456,7 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1491,10 +1520,10 @@
       <c r="D2" s="1">
         <v>33867</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="s">
@@ -1525,4 +1554,72 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="14.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1">
+        <v>46029</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Utils/Deepam_Dataset.xlsx
+++ b/Utils/Deepam_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="5" activeTab="8"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="PharmacyAdmin_ProductCategory" sheetId="5" r:id="rId7"/>
     <sheet name="Doctor-EHR" sheetId="6" r:id="rId8"/>
     <sheet name="PharmacyAdmin_Report" sheetId="9" r:id="rId9"/>
+    <sheet name="PharmacyAdmin_InventoryAlert" sheetId="10" r:id="rId10"/>
+    <sheet name="PharmacyAdmin_Sales" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
   <si>
     <t>URL</t>
   </si>
@@ -380,6 +382,12 @@
   </si>
   <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Eldoper</t>
+  </si>
+  <si>
+    <t>Paracetomol</t>
   </si>
 </sst>
 </file>
@@ -1035,6 +1043,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1042,9 +1053,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1715,6 +1723,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>876075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1741,44 +1823,44 @@
     <col min="13" max="13" width="96.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1957,42 +2039,42 @@
     <col min="12" max="12" width="1.17272727272727" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="L1" s="7"/>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2196,7 +2278,7 @@
       <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>7082767623</v>
       </c>
       <c r="C2" t="s">
@@ -2222,7 +2304,7 @@
       <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>3082767623</v>
       </c>
       <c r="C3" t="s">
@@ -2245,7 +2327,7 @@
       <c r="A4" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>7094755143</v>
       </c>
       <c r="C4" t="s">
@@ -2281,109 +2363,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="3"/>
-    <col min="2" max="2" width="11.7272727272727" style="3"/>
-    <col min="3" max="16384" width="8.72727272727273" style="3"/>
+    <col min="1" max="1" width="8.72727272727273" style="4"/>
+    <col min="2" max="2" width="11.7272727272727" style="4"/>
+    <col min="3" max="16384" width="8.72727272727273" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>7082767623</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>3082767623</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>7094755143</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2534,51 +2616,51 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2024</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>2024</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
